--- a/uploads/room_mapping.xlsx
+++ b/uploads/room_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\float_working2\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149F763-0281-48BF-9260-82382FB3F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E745526-12E4-4EE2-A08D-03801E611E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F2E3252-A846-4A0E-8072-090428F4B060}"/>
+    <workbookView xWindow="7812" yWindow="2508" windowWidth="13584" windowHeight="8880" xr2:uid="{8F2E3252-A846-4A0E-8072-090428F4B060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,15 +86,6 @@
     <t>S2_EEE</t>
   </si>
   <si>
-    <t>S6_EC</t>
-  </si>
-  <si>
-    <t>S4_EC</t>
-  </si>
-  <si>
-    <t>S2_EC</t>
-  </si>
-  <si>
     <t>S2_AI_ML</t>
   </si>
   <si>
@@ -159,6 +150,15 @@
   </si>
   <si>
     <t>capacity</t>
+  </si>
+  <si>
+    <t>S6_ECE</t>
+  </si>
+  <si>
+    <t>S4_ECE</t>
+  </si>
+  <si>
+    <t>S2_ECE</t>
   </si>
 </sst>
 </file>
@@ -532,21 +532,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3935CA-7760-4391-810A-C3351C5882AD}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C2">
         <v>60</v>
@@ -565,7 +565,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3">
         <v>60</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>60</v>
@@ -628,10 +628,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>60</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -653,7 +653,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -664,7 +664,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>60</v>
@@ -675,7 +675,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>60</v>
@@ -686,7 +686,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>60</v>
@@ -697,7 +697,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>60</v>
@@ -708,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>60</v>
@@ -716,10 +716,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C17">
         <v>60</v>
@@ -727,10 +727,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>60</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>60</v>
@@ -749,10 +749,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C20">
         <v>60</v>
@@ -760,10 +760,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>60</v>

--- a/uploads/room_mapping.xlsx
+++ b/uploads/room_mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\float_working2\data\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E745526-12E4-4EE2-A08D-03801E611E9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C82DF41C-7617-4AF9-823D-5131A3FC02C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7812" yWindow="2508" windowWidth="13584" windowHeight="8880" xr2:uid="{8F2E3252-A846-4A0E-8072-090428F4B060}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F2E3252-A846-4A0E-8072-090428F4B060}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3935CA-7760-4391-810A-C3351C5882AD}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
